--- a/outputs/rpwa1-6.xlsx
+++ b/outputs/rpwa1-6.xlsx
@@ -4,6 +4,9 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -397,52 +400,5410 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="50.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Text</v>
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Form RPWA 1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>--- Page 1 ---</v>
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>Government of Rajasthan</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Government of Rajasthan  Public Works Department, Jaipur  PWD103: X.En.PWD. Electric Div.Udr. (12189)  Sep, 2022 CASH BOOK ( Ver 1.0 )  (Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)  Form RPWA 1  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  1   Opening Balance   13,35,000.00  2   05-09-2022   CrNo: Ch No: 4508692  Unique Enterprises   500.00   0075-00-800-52-01   05-09-2022   ChlnNo: 4508692 GRN:66262803  Remittance to Treasury   6,100   0.00   6,100   0075-00-800-52-01, 8443- 00-108-00-00  3   05-09-2022   CrNo: Ch No: 4508692  Unique Enterprises   5,600.00   8443-00-108-00-00   0.00  4   06-09-2022   CrNo: Ch No: 4553087  Goyal Electricals   500.00   0075-00-800-52-01   06-09-2022   ChlnNo: 4553087 GRN:66276094  Remittance to Treasury   4,475   0.00   4,475   0075-00-800-52-01, 8443- 00-108-00-00  5   06-09-2022   CrNo: Ch No: 4553087  Goyal Electricals   3,975.00   8443-00-108-00-00   0.00  6   07-09-2022   CrNo: Ch No: 4586992  MANDORE FIRE SAFETY CENTRE  500.00   0075-00-800-52-01   07-09-2022   ChlnNo: 4586992 GRN:66327709  Remittance to Treasury   6,100   0.00   6,100   0075-00-800-52-01, 8443- 00-108-00-00  7   07-09-2022   CrNo: Ch No: 4586992  MANDORE FIRE SAFETY CENTRE  5,600.00   8443-00-108-00-00   07-09-2022   ChlnNo: 4588572 GRN:66333989  Remittance to Treasury   6,200   0.00   6,200   0075-00-800-52-01, 8443- 00-108-00-00  8   07-09-2022   CrNo: Ch No: 4588572  Navyug Engineering   500.00   0075-00-800-52-01   07-09-2022   ChlnNo: 4596721 GRN:66333360  Remittance to Treasury   6,200   0.00   6,200   0075-00-800-52-01, 8443- 00-108-00-00  9   07-09-2022   CrNo: Ch No: 4588572  Navyug Engineering   5,700.00   8443-00-108-00-00   07-09-2022   Tvno: 21128   GST Adjustment Bill   91534.00   91,534   8658-00-139-00-00  10   07-09-2022   CrNo: Ch No: 4596721  Navyug Engineering   500.00   0075-00-800-52-01   07-09-2022   Tvno: 29312   Pratahkal Multimedia Ltd , Paymanager Bill No: 41193408, Bill Type: HR Payment (Contingency/Misc)  561   18142.00   18,703   4202-01-203-01-90-17-V-P  11   07-09-2022   CrNo: Ch No: 4596721  Navyug Engineering   5,700.00   8443-00-108-00-00   07-09-2022   Tvno: 29313   Pratahkal Multimedia Ltd , Paymanager Bill No: 41193448, Bill Type: HR Payment (Contingency/Misc)  449   14514.00   14,963   8443-00-108-00-00  12   07-09-2022   TVNo: 29312   Pratahkal Multimedia Ltd   561.00   374: I-Tax, 187: Patrakar- Kalyan,  0.00  13   07-09-2022   TVNo: 29313   Pratahkal Multimedia Ltd   449.00   299: I-Tax, 150: Patrakar- Kalyan,  0.00  14   08-09-2022   TVNo: 29726   Neha Electric (AgreeMentNo 6/2020- 21, E/f in Govt. Nursing Hostel No 2 at MBGH Badi Campus Udaipur)  1,49,996.00   18748: SD2, 12499: I- Tax, 12500: GSTIN Deduction, 6249: Labour- Welfare, 100000: MD5,  08-09-2022   Tvno: 29726   Neha Electric (Wo.No.:124 , Wo. Date:09/06/2020, AgreeMentNo 6/2020- 21, E/f in Govt. Nursing Hostel No 2 at MBGH Badi Campus Udaipur) , Paymanager Bill No: 41246961, Bill Type: Work Order Payments (4 &amp; Final)  1,49,996   474929.00   6,24,925   4210-03-105-03-90-17-V-P  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:03:54 PM) Page 1 of 3</v>
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>Public Works Department, Jaipur</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>--- Page 2 ---</v>
+        <v>PWD103: X.En.PWD. Electric Div.Udr.</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>CASH BOOK (</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Ver 1.0 )</v>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>Sep, 2022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  15   12-09-2022   TVNo: 30191   Kartik Traders (AgreeMentNo 131/2016 -17, E/f in Consumer court Circuit Bench court Campus Udaipur)  2,628.00   1085: SD2, 617: I-Tax, 618: GSTIN Deduction, 308: Labour-Welfare,  12-09-2022   Tvno: 30191   Kartik Traders (Wo.No.:2348 , Wo. Date:08/03/2017, AgreeMentNo 131/2016-17, E/f in Consumer court Circuit Bench court Campus Udaipur) , Paymanager Bill No: 41362298, Bill Type: Work Order Payments (1 Running)  2,628   28219.00   30,847   5475-00-102-09-00-17-V-C  16   12-09-2022   TVNo: 30192   Kartik Traders (AgreeMentNo 131/2016 -17, E/f in Consumer court Circuit Bench court Campus Udaipur)  30,111.00   20073: SD2, 4015: I-Tax, 4016: GSTIN Deduction, 2007: Labour-Welfare,  12-09-2022   Tvno: 30192   Kartik Traders (Wo.No.:2348 , Wo. Date:08/03/2017, AgreeMentNo 131/2016-17, E/f in Consumer court Circuit Bench court Campus Udaipur) , Paymanager Bill No: 41362325, Bill Type: Work Order Payments (2 &amp; Final)  30,111   170617.00   2,00,728   5475-00-102-09-00-17-V-C  17   13-09-2022   TVNo: 30397   Reliable Stationary Paper Stores  151.00   151: I-Tax,   13-09-2022   Tvno: 30397   Reliable Stationary Paper Stores , Paymanager Bill No: 41393286, Bill Type: HR Payment Less than 30 thousands  151   7379.00   7,530   8443-00-108-00-00  18   13-09-2022   TVNo: 30398   Arun Electricals (AgreeMentNo 13/2019- 20, Electrification work in Hostel For Govt Nursing college MB Hospitals at TB Hospital Campus Badi Udaipur)  1,53,128.00   48048: SD2, 32032: I- Tax, 32032: GSTIN Deduction, 16016: Labour-Welfare, 25000: MD5,  13-09-2022   Tvno: 30398   Arun Electricals (Wo.No.:382 , Wo. Date:05/08/2019, AgreeMentNo 13/2019- 20, Electrification work in Hostel For Govt Nursing college MB Hospitals at TB Hospital Campus Badi Udaipur) , Paymanager Bill No: 41393306, Bill Type: Work Order Payments (2 &amp; Final)  1,53,128   1448465.00   16,01,593   4210-03-105-03-90-17-V-P  19   0.00   13-09-2022   Tvno: 30399   Royal Computech , Paymanager Bill No: 41393318, Bill Type: HR Payment Less than 30 thousands  4900.00   4,900   8443-00-108-00-00  20   0.00   13-09-2022   Tvno: 30400   Royal Computech , Paymanager Bill No: 41393323, Bill Type: HR Payment Less than 30 thousands  4900.00   4,900   8443-00-108-00-00  21   0.00   15-09-2022   Tvno: 30853   BHARTI KASERA , Paymanager Bill No: 41393278, Bill Type: HR Payment Less than 30 thousands  8850.00   8,850   8443-00-108-00-00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:03:54 PM) Page 2 of 3</v>
+        <v>(12189)</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>--- Page 3 ---</v>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v>(Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)</v>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Signature of Sr.DAO/DAO/DA with seal   Signature of DO with seal  (A.L.Verma, Sr.D.A.O.)   (Deepak Pareek, Ee Pwd Elect Dn Udaipur)  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  22   16-09-2022   TVNo: 31128   Mitul Enterprises (AgreeMentNo 30/2021- 22, Electric repair work in Ist,IIIrd &amp; IV th Type Quarters at Udaipur)  7,654.00   2870: SD2, 1913: I-Tax, 1914: GSTIN Deduction, 957: Labour-Welfare,  16-09-2022   Tvno: 31128   Mitul Enterprises (Wo.No.:534 , Wo. Date:01/09/2021, AgreeMentNo 30/2021- 22, Electric repair work in Ist,IIIrd &amp; IV th Type Quarters at Udaipur) , Paymanager Bill No: 41397953, Bill Type: Work Order Payments (2 &amp; Final)  7,654   88011.00   95,665   2216-05-053-01-07-21-V-P  23   0.00   19-09-2022   Tvno: 31505   AEN O and M AVVNL Rishabdav , Paymanager Bill No: 41458176, Bill Type: HR Payment (Contingency/Misc)  46342.00   46,342   8443-00-108-00-00  24   23-09-2022   CrNo: Ch No: 5052878  Shri Govindam Enterprises  200.00   0075-00-800-52-01   23-09-2022   ChlnNo: 5052878 GRN:66892969  Remittance to Treasury   2,300   0.00   2,300   0075-00-800-52-01, 8443- 00-108-00-00  25   23-09-2022   CrNo: Ch No: 5052878  Shri Govindam Enterprises  2,100.00   8443-00-108-00-00   23-09-2022   ChlnNo: 5053184 GRN:66892837  Remittance to Treasury   2,625   0.00   2,625   0075-00-800-52-01, 8443- 00-108-00-00  26   23-09-2022   CrNo: Ch No: 5053184  Shri Govindam Enterprises  200.00   0075-00-800-52-01   23-09-2022   ChlnNo: 5053301 GRN:66892921  Remittance to Treasury   1,500   0.00   1,500   0075-00-800-52-01, 8443- 00-108-00-00  27   23-09-2022   CrNo: Ch No: 5053184  Shri Govindam Enterprises  2,425.00   8443-00-108-00-00   0.00  28   23-09-2022   CrNo: Ch No: 5053301  Shri Govindam Enterprises  200.00   0075-00-800-52-01   0.00  29   23-09-2022   CrNo: Ch No: 5053301  Shri Govindam Enterprises  1,300.00   8443-00-108-00-00   0.00  30   27-09-2022   CrNo: 80   Mitul Enterprises   800.00   0075-00-800-52-01   0.00  31   27-09-2022   CrNo: 81   Neha Electric   800.00   0075-00-800-52-01   0.00  32   0.00   28-09-2022   ChlnNo: 5136876 GRN:67001228  Remittance to Treasury   1,600   0.00   1,600   0075-00-800-52-01  33   0.00   30-09-2022   ChlnNo: 5201971 GRN:67016666  Remittance to Treasury   825   0.00   825   8443-00-108-00-00  34   0.00   30-09-2022   ChlnNo: 5201973 GRN:67016757  Remittance to Treasury   825   0.00   825   8443-00-108-00-00  35   0.00   30-09-2022   ChlnNo: 5201974 GRN:67016795  Remittance to Treasury   450   0.00   450   8443-00-108-00-00  36   Closing Balance   13,32,900   13,32,900  1716778.00   1716778.00   2406802.00   4123580.00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:03:54 PM) Page 3 of 3</v>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C8" t="str">
+        <v>From whom</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Amount</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="H8" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D9" t="str">
+        <v>(Cash)</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Receipt</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Opening Balance</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>13,35,000.00</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2 05-09-2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CrNo: Ch No: Unique Enterprises</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E12" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+      <c r="F12" t="str">
+        <v>05-09-2022</v>
+      </c>
+      <c r="G12" t="str">
+        <v>ChlnNo: 4508692</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="I12" t="str">
+        <v>6,100 0.00</v>
+      </c>
+      <c r="J12" t="str">
+        <v>6,100</v>
+      </c>
+      <c r="K12" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>4508692</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>GRN:66262803</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3 05-09-2022</v>
+      </c>
+      <c r="B14" t="str">
+        <v>CrNo: Ch No: Unique Enterprises</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>5,600.00</v>
+      </c>
+      <c r="E14" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>4508692</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>4 06-09-2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>CrNo: Ch No: Goyal Electricals</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+      <c r="F16" t="str">
+        <v>06-09-2022</v>
+      </c>
+      <c r="G16" t="str">
+        <v>ChlnNo: 4553087</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="I16" t="str">
+        <v>4,475 0.00</v>
+      </c>
+      <c r="J16" t="str">
+        <v>4,475</v>
+      </c>
+      <c r="K16" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v>4553087</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <v>GRN:66276094</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>5 06-09-2022</v>
+      </c>
+      <c r="B18" t="str">
+        <v>CrNo: Ch No: Goyal Electricals</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>3,975.00</v>
+      </c>
+      <c r="E18" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v>4553087</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>6 07-09-2022</v>
+      </c>
+      <c r="B20" t="str">
+        <v>CrNo: Ch No: MANDORE FIRE</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+      <c r="F20" t="str">
+        <v>07-09-2022</v>
+      </c>
+      <c r="G20" t="str">
+        <v>ChlnNo: 4586992</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="I20" t="str">
+        <v>6,100 0.00</v>
+      </c>
+      <c r="J20" t="str">
+        <v>6,100</v>
+      </c>
+      <c r="K20" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v>4586992 SAFETY CENTRE</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>GRN:66327709</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>7 07-09-2022</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CrNo: Ch No: MANDORE FIRE</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>5,600.00</v>
+      </c>
+      <c r="E22" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F22" t="str">
+        <v>07-09-2022</v>
+      </c>
+      <c r="G22" t="str">
+        <v>ChlnNo: 4588572</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="I22" t="str">
+        <v>6,200 0.00</v>
+      </c>
+      <c r="J22" t="str">
+        <v>6,200</v>
+      </c>
+      <c r="K22" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v>4586992 SAFETY CENTRE</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>GRN:66333989</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>8 07-09-2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CrNo: Ch No: Navyug Engineering</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E24" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+      <c r="F24" t="str">
+        <v>07-09-2022</v>
+      </c>
+      <c r="G24" t="str">
+        <v>ChlnNo: 4596721</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="I24" t="str">
+        <v>6,200 0.00</v>
+      </c>
+      <c r="J24" t="str">
+        <v>6,200</v>
+      </c>
+      <c r="K24" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>4588572</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>GRN:66333360</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>9 07-09-2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>CrNo: Ch No: Navyug Engineering</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v>5,700.00</v>
+      </c>
+      <c r="E26" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F26" t="str">
+        <v>07-09-2022</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Tvno: 21128</v>
+      </c>
+      <c r="H26" t="str">
+        <v>GST Adjustment Bill</v>
+      </c>
+      <c r="I26" t="str">
+        <v>91534.00</v>
+      </c>
+      <c r="J26" t="str">
+        <v>91,534</v>
+      </c>
+      <c r="K26" t="str">
+        <v>8658-00-139-00-00</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>4588572</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>10 07-09-2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>CrNo: Ch No: Navyug Engineering</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>500.00</v>
+      </c>
+      <c r="E28" t="str">
+        <v>0075-00-800-52-01</v>
+      </c>
+      <c r="F28" t="str">
+        <v>07-09-2022</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Tvno: 29312</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Pratahkal Multimedia</v>
+      </c>
+      <c r="I28" t="str">
+        <v>561 18142.00</v>
+      </c>
+      <c r="J28" t="str">
+        <v>18,703</v>
+      </c>
+      <c r="K28" t="str">
+        <v>4202-01-203-01-90-17-V-P</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>4596721</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v>Ltd , Paymanager Bill</v>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v>No: 41193408, Bill</v>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v>Type: HR Payment</v>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v>(Contingency/Misc)</v>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>11 07-09-2022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>CrNo: Ch No: Navyug Engineering</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v>5,700.00</v>
+      </c>
+      <c r="E33" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+      <c r="F33" t="str">
+        <v>07-09-2022</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Tvno: 29313</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Pratahkal Multimedia</v>
+      </c>
+      <c r="I33" t="str">
+        <v>449 14514.00</v>
+      </c>
+      <c r="J33" t="str">
+        <v>14,963</v>
+      </c>
+      <c r="K33" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v>4596721</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v>Ltd , Paymanager Bill</v>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v>No: 41193448, Bill</v>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v>Type: HR Payment</v>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v>(Contingency/Misc)</v>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>12 07-09-2022</v>
+      </c>
+      <c r="B38" t="str">
+        <v>TVNo: 29312 Pratahkal Multimedia Ltd</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>561.00</v>
+      </c>
+      <c r="E38" t="str">
+        <v>374: I-Tax, 187: Patrakar-</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>Kalyan,</v>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>13 07-09-2022</v>
+      </c>
+      <c r="B40" t="str">
+        <v>TVNo: 29313 Pratahkal Multimedia Ltd</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>449.00</v>
+      </c>
+      <c r="E40" t="str">
+        <v>299: I-Tax, 150: Patrakar-</v>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v>Kalyan,</v>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>14 08-09-2022</v>
+      </c>
+      <c r="B42" t="str">
+        <v>TVNo: 29726 Neha Electric</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>1,49,996.00</v>
+      </c>
+      <c r="E42" t="str">
+        <v>18748: SD2, 12499: I-</v>
+      </c>
+      <c r="F42" t="str">
+        <v>08-09-2022</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Tvno: 29726</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Neha Electric</v>
+      </c>
+      <c r="I42" t="str">
+        <v>1,49,996 474929.00</v>
+      </c>
+      <c r="J42" t="str">
+        <v>6,24,925</v>
+      </c>
+      <c r="K42" t="str">
+        <v>4210-03-105-03-90-17-V-P</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v>(AgreeMentNo 6/2020-</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v>Tax, 12500: GSTIN</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v>(Wo.No.:124 , Wo.</v>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v>21, E/f in Govt. Nursing</v>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v>Deduction, 6249: Labour-</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v>Date:09/06/2020,</v>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v>Hostel No 2 at MBGH</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v>Welfare, 100000: MD5,</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v>AgreeMentNo 6/2020-</v>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v>Badi Campus Udaipur)</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v>21, E/f in Govt. Nursing</v>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v>Hostel No 2 at MBGH</v>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v>Badi Campus Udaipur)</v>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v>, Paymanager Bill No:</v>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v>41246961, Bill Type:</v>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="I51" t="str">
+        <v/>
+      </c>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v>(4 &amp; Final)</v>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Page 1 of 3</v>
+      </c>
+      <c r="B53" t="str">
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:03:54 PM)</v>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K53"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="36.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>15 12-09-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TVNo: 30191 Kartik Traders</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>2,628.00 1085: SD2, 617: I-Tax,</v>
+      </c>
+      <c r="E5" t="str">
+        <v>12-09-2022</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Tvno: 30191 Kartik Traders</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>2,628 28219.00</v>
+      </c>
+      <c r="I5" t="str">
+        <v>30,847</v>
+      </c>
+      <c r="J5" t="str">
+        <v>5475-00-102-09-00-17-V-C</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>(AgreeMentNo 131/2016</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>618: GSTIN Deduction,</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>(Wo.No.:2348 , Wo.</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>-17, E/f in Consumer</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>308: Labour-Welfare,</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>Date:08/03/2017,</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>court Circuit Bench court</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>AgreeMentNo</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>Campus Udaipur)</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>131/2016-17, E/f in</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>Consumer court Circuit</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>Bench court Campus</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>Bill No: 41362298, Bill</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>Payments (1 Running)</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>16 12-09-2022</v>
+      </c>
+      <c r="B16" t="str">
+        <v>TVNo: 30192 Kartik Traders</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>30,111.00 20073: SD2, 4015: I-Tax,</v>
+      </c>
+      <c r="E16" t="str">
+        <v>12-09-2022</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Tvno: 30192 Kartik Traders</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v>30,111 170617.00</v>
+      </c>
+      <c r="I16" t="str">
+        <v>2,00,728</v>
+      </c>
+      <c r="J16" t="str">
+        <v>5475-00-102-09-00-17-V-C</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v>(AgreeMentNo 131/2016</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>4016: GSTIN Deduction,</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>(Wo.No.:2348 , Wo.</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>-17, E/f in Consumer</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>2007: Labour-Welfare,</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>Date:08/03/2017,</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v>court Circuit Bench court</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>AgreeMentNo</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>Campus Udaipur)</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>131/2016-17, E/f in</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>Consumer court Circuit</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>Bench court Campus</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v>Bill No: 41362325, Bill</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>Payments (2 &amp; Final)</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>17 13-09-2022</v>
+      </c>
+      <c r="B27" t="str">
+        <v>TVNo: 30397 Reliable Stationary</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v>151.00 151: I-Tax,</v>
+      </c>
+      <c r="E27" t="str">
+        <v>13-09-2022</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Tvno: 30397 Reliable Stationary</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v>151 7379.00</v>
+      </c>
+      <c r="I27" t="str">
+        <v>7,530</v>
+      </c>
+      <c r="J27" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v>Paper Stores</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v>Paper Stores ,</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>41393286, Bill Type:</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>18 13-09-2022</v>
+      </c>
+      <c r="B33" t="str">
+        <v>TVNo: 30398 Arun Electricals</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v>1,53,128.00 48048: SD2, 32032: I-</v>
+      </c>
+      <c r="E33" t="str">
+        <v>13-09-2022</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Tvno: 30398 Arun Electricals</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v>1,53,128 1448465.00</v>
+      </c>
+      <c r="I33" t="str">
+        <v>16,01,593</v>
+      </c>
+      <c r="J33" t="str">
+        <v>4210-03-105-03-90-17-V-P</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v>(AgreeMentNo 13/2019-</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>Tax, 32032: GSTIN</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>(Wo.No.:382 , Wo.</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v>20, Electrification work in</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v>Deduction, 16016:</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>Date:05/08/2019,</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v>Hostel For Govt Nursing</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>Labour-Welfare, 25000:</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>AgreeMentNo 13/2019-</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v>college MB Hospitals at</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>MD5,</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>20, Electrification work</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v>TB Hospital Campus</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>in Hostel For Govt</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v>Badi Udaipur)</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>Nursing college MB</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v>Hospitals at TB</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>Hospital Campus Badi</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>Bill No: 41393306, Bill</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>Payments (2 &amp; Final)</v>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>19</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E46" t="str">
+        <v>13-09-2022</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Tvno: 30399 Royal Computech ,</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v>4900.00</v>
+      </c>
+      <c r="I46" t="str">
+        <v>4,900</v>
+      </c>
+      <c r="J46" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v>41393318, Bill Type:</v>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>20</v>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E51" t="str">
+        <v>13-09-2022</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Tvno: 30400 Royal Computech ,</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v>4900.00</v>
+      </c>
+      <c r="I51" t="str">
+        <v>4,900</v>
+      </c>
+      <c r="J51" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v>41393323, Bill Type:</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>21</v>
+      </c>
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E56" t="str">
+        <v>15-09-2022</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Tvno: 30853 BHARTI KASERA ,</v>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v>8850.00</v>
+      </c>
+      <c r="I56" t="str">
+        <v>8,850</v>
+      </c>
+      <c r="J56" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v/>
+      </c>
+      <c r="B57" t="str">
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v>41393278, Bill Type:</v>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v/>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <v/>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Page 2 of 3</v>
+      </c>
+      <c r="B61" t="str">
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:03:54 PM)</v>
+      </c>
+      <c r="I61" t="str">
+        <v/>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J61"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>22 16-09-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TVNo: 31128 Mitul Enterprises</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>7,654.00 2870: SD2, 1913: I-Tax,</v>
+      </c>
+      <c r="E5" t="str">
+        <v>16-09-2022</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Tvno: 31128 Mitul Enterprises</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>7,654 88011.00</v>
+      </c>
+      <c r="I5" t="str">
+        <v>95,665 2216-05-053-01-07-21-V-P</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>(AgreeMentNo 30/2021-</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>1914: GSTIN Deduction,</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>(Wo.No.:534 , Wo.</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>22, Electric repair work in</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>957: Labour-Welfare,</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>Date:01/09/2021,</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>Ist,IIIrd &amp; IV th Type</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>AgreeMentNo 30/2021-</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>Quarters at Udaipur)</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>22, Electric repair work</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>in Ist,IIIrd &amp; IV th Type</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>Quarters at Udaipur) ,</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>41397953, Bill Type:</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>(2 &amp; Final)</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>23</v>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E16" t="str">
+        <v>19-09-2022</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Tvno: 31505 AEN O and M AVVNL</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v>46342.00</v>
+      </c>
+      <c r="I16" t="str">
+        <v>46,342 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>Rishabdav ,</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>41458176, Bill Type:</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>HR Payment</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>(Contingency/Misc)</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>24 23-09-2022</v>
+      </c>
+      <c r="B22" t="str">
+        <v>CrNo: Ch No: Shri Govindam</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>200.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E22" t="str">
+        <v>23-09-2022</v>
+      </c>
+      <c r="F22" t="str">
+        <v>ChlnNo: 5052878 Remittance to Treasury</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v>2,300 0.00</v>
+      </c>
+      <c r="I22" t="str">
+        <v>2,300 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v>5052878 Enterprises</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>GRN:66892969</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>25 23-09-2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CrNo: Ch No: Shri Govindam</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>2,100.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E24" t="str">
+        <v>23-09-2022</v>
+      </c>
+      <c r="F24" t="str">
+        <v>ChlnNo: 5053184 Remittance to Treasury</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v>2,625 0.00</v>
+      </c>
+      <c r="I24" t="str">
+        <v>2,625 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>5052878 Enterprises</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>GRN:66892837</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>26 23-09-2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>CrNo: Ch No: Shri Govindam</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v>200.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E26" t="str">
+        <v>23-09-2022</v>
+      </c>
+      <c r="F26" t="str">
+        <v>ChlnNo: 5053301 Remittance to Treasury</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v>1,500 0.00</v>
+      </c>
+      <c r="I26" t="str">
+        <v>1,500 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>5053184 Enterprises</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v>GRN:66892921</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>27 23-09-2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>CrNo: Ch No: Shri Govindam</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>2,425.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>5053184 Enterprises</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>28 23-09-2022</v>
+      </c>
+      <c r="B30" t="str">
+        <v>CrNo: Ch No: Shri Govindam</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>200.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v>5053301 Enterprises</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>29 23-09-2022</v>
+      </c>
+      <c r="B32" t="str">
+        <v>CrNo: Ch No: Shri Govindam</v>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>1,300.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v>5053301 Enterprises</v>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>30 27-09-2022</v>
+      </c>
+      <c r="B34" t="str">
+        <v>CrNo: 80 Mitul Enterprises</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>800.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>31 27-09-2022</v>
+      </c>
+      <c r="B35" t="str">
+        <v>CrNo: 81 Neha Electric</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v>800.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>32</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E36" t="str">
+        <v>28-09-2022</v>
+      </c>
+      <c r="F36" t="str">
+        <v>ChlnNo: 5136876 Remittance to Treasury</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v>1,600 0.00</v>
+      </c>
+      <c r="I36" t="str">
+        <v>1,600 0075-00-800-52-01</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>GRN:67001228</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>33</v>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E38" t="str">
+        <v>30-09-2022</v>
+      </c>
+      <c r="F38" t="str">
+        <v>ChlnNo: 5201971 Remittance to Treasury</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v>825 0.00</v>
+      </c>
+      <c r="I38" t="str">
+        <v>825 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>GRN:67016666</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>34</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E40" t="str">
+        <v>30-09-2022</v>
+      </c>
+      <c r="F40" t="str">
+        <v>ChlnNo: 5201973 Remittance to Treasury</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v>825 0.00</v>
+      </c>
+      <c r="I40" t="str">
+        <v>825 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>GRN:67016757</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>35</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E42" t="str">
+        <v>30-09-2022</v>
+      </c>
+      <c r="F42" t="str">
+        <v>ChlnNo: 5201974 Remittance to Treasury</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v>450 0.00</v>
+      </c>
+      <c r="I42" t="str">
+        <v>450 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>GRN:67016795</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>36</v>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>Closing Balance</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v>13,32,900</v>
+      </c>
+      <c r="I44" t="str">
+        <v>13,32,900</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v>1716778.00</v>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v>1716778.00 2406802.00</v>
+      </c>
+      <c r="I45" t="str">
+        <v>4123580.00</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Signature of Sr.DAO/DAO/DA with seal</v>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v>Signature of DO with seal</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>(A.L.Verma, Sr.D.A.O.)</v>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v>(Deepak Pareek, Ee Pwd Elect Dn Udaipur)</v>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Page 3 of 3</v>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:03:54 PM)</v>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I48"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PDF to Excel Extraction Summary</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Source File:</v>
+      </c>
+      <c r="B3" t="str">
+        <v>rpwa1-6.pdf</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Extraction Date:</v>
+      </c>
+      <c r="B4" t="str">
+        <v>9/16/2025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Tables Extracted:</v>
+      </c>
+      <c r="B5" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Table Details:</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Table #</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Rows</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Columns</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Confidence</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Sheet Name</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Table 1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>52</v>
+      </c>
+      <c r="C9" t="str">
+        <v>11</v>
+      </c>
+      <c r="D9" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Table 1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Table 2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>60</v>
+      </c>
+      <c r="C10" t="str">
+        <v>10</v>
+      </c>
+      <c r="D10" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Table 2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Table 3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>47</v>
+      </c>
+      <c r="C11" t="str">
+        <v>9</v>
+      </c>
+      <c r="D11" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Table 3</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E11"/>
   </ignoredErrors>
 </worksheet>
 </file>